--- a/data/output/FV2504_FV2410/UTILMD/55202.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55202.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="283">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="283">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -958,6 +958,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U129" totalsRowShown="0">
+  <autoFilter ref="A1:U129"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1247,7 +1277,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7481,5 +7514,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55202.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55202.xlsx
@@ -1796,7 +1796,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4078,26 +4078,26 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>233</v>
       </c>
       <c r="K47" s="6" t="s">
@@ -4106,23 +4106,23 @@
       <c r="L47" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5" t="s">
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>233</v>
       </c>
       <c r="V47" s="6" t="s">
@@ -4376,7 +4376,7 @@
         <v>251</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5276,7 +5276,7 @@
         <v>254</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5454,26 +5454,26 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5" t="s">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
         <v>238</v>
       </c>
       <c r="K74" s="6" t="s">
@@ -5482,23 +5482,23 @@
       <c r="L74" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O74" s="5" t="s">
+      <c r="O74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P74" s="5"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5" t="s">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2" t="s">
         <v>238</v>
       </c>
       <c r="V74" s="6" t="s">
@@ -5758,7 +5758,7 @@
         <v>256</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5968,7 +5968,7 @@
         <v>258</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6156,22 +6156,22 @@
       </c>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
         <v>242</v>
       </c>
       <c r="K87" s="6" t="s">
@@ -6180,19 +6180,19 @@
       <c r="L87" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="N87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5" t="s">
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2" t="s">
         <v>242</v>
       </c>
       <c r="V87" s="6" t="s">
@@ -6386,7 +6386,7 @@
         <v>256</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6514,52 +6514,52 @@
       <c r="V93" s="5"/>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E94" s="5"/>
+      <c r="E94" s="2"/>
       <c r="F94" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5" t="s">
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K94" s="5"/>
+      <c r="K94" s="2"/>
       <c r="L94" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="M94" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N94" s="5" t="s">
+      <c r="N94" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O94" s="5" t="s">
+      <c r="O94" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P94" s="5"/>
+      <c r="P94" s="2"/>
       <c r="Q94" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5" t="s">
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="V94" s="5"/>
+      <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
@@ -6704,7 +6704,7 @@
         <v>260</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -6974,7 +6974,7 @@
         <v>262</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7180,7 +7180,7 @@
         <v>262</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7386,7 +7386,7 @@
         <v>262</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7700,7 +7700,7 @@
         <v>263</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7828,52 +7828,52 @@
       <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E119" s="5"/>
+      <c r="E119" s="2"/>
       <c r="F119" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5" t="s">
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K119" s="5"/>
+      <c r="K119" s="2"/>
       <c r="L119" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="M119" s="5" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N119" s="5" t="s">
+      <c r="N119" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O119" s="5" t="s">
+      <c r="O119" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P119" s="5"/>
+      <c r="P119" s="2"/>
       <c r="Q119" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="5" t="s">
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="V119" s="5"/>
+      <c r="V119" s="2"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -8018,7 +8018,7 @@
         <v>262</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8266,48 +8266,48 @@
       <c r="V126" s="5"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5" t="s">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E127" s="5"/>
+      <c r="E127" s="2"/>
       <c r="F127" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5" t="s">
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K127" s="5"/>
+      <c r="K127" s="2"/>
       <c r="L127" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="M127" s="5" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5" t="s">
+      <c r="N127" s="2"/>
+      <c r="O127" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P127" s="5"/>
+      <c r="P127" s="2"/>
       <c r="Q127" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="R127" s="5"/>
-      <c r="S127" s="5"/>
-      <c r="T127" s="5"/>
-      <c r="U127" s="5" t="s">
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="V127" s="5"/>
+      <c r="V127" s="2"/>
     </row>
     <row r="128" spans="1:22">
       <c r="A128" s="5" t="s">
